--- a/biology/Zoologie/Anabate_montagnard/Anabate_montagnard.xlsx
+++ b/biology/Zoologie/Anabate_montagnard/Anabate_montagnard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anabacerthia striaticollis
 L'Anabate montagnard (Anabacerthia striaticollis) est une espèce d'oiseaux de la famille des Furnariidae. Son aire s'étend à travers la partie nord des Andes.
@@ -512,9 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Anabacerthia striaticollis a été décrite pour la première fois en 1841[Note 1] par l'ornithologue français  Frédéric de Lafresnaye (1783-1861)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Anabacerthia striaticollis a été décrite pour la première fois en 1841[Note 1] par l'ornithologue français  Frédéric de Lafresnaye (1783-1861).
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la classification de référence du Congrès ornithologique international  (version 12.1, 2022) :
 sous-espèce Anabacerthia striaticollis anxia (Bangs, 1902)
 sous-espèce Anabacerthia striaticollis perijana Phelps &amp; Phelps Jr, 1952
 sous-espèce Anabacerthia striaticollis venezuelana (Hellmayr, 1911)
